--- a/New Analysis Code/Templates/Char Scaling Analysis Template.xlsx
+++ b/New Analysis Code/Templates/Char Scaling Analysis Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code Beta\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D4ECD0-18B2-4951-94F9-860567F72850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3896D1BE-CD29-479B-98B7-EE2D2A2770BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Colors</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Virtual Distance (m)</t>
   </si>
   <si>
-    <t>Analysis Types</t>
-  </si>
-  <si>
     <t>Protocol Names</t>
   </si>
   <si>
@@ -101,6 +98,15 @@
   </si>
   <si>
     <t>Plotting Order</t>
+  </si>
+  <si>
+    <t>Axes</t>
+  </si>
+  <si>
+    <t>Y-axis</t>
+  </si>
+  <si>
+    <t>Absolute Value</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -490,25 +496,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -519,31 +525,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -551,19 +557,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -571,13 +577,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -590,8 +596,16 @@
       </c>
     </row>
     <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10">

--- a/New Analysis Code/Templates/Char Scaling Analysis Template.xlsx
+++ b/New Analysis Code/Templates/Char Scaling Analysis Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd7473887230acd6/Documents/EMC-Scrotation-Station/New Analysis Code/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3896D1BE-CD29-479B-98B7-EE2D2A2770BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3896D1BE-CD29-479B-98B7-EE2D2A2770BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C895B0-82FD-4643-8A71-0C9C383C1F03}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Protocol Names</t>
   </si>
   <si>
-    <t>Log2 of Height (log2 °)</t>
-  </si>
-  <si>
     <t>0, 1, 2, 4, 8, 16, 32</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>Absolute Value</t>
+  </si>
+  <si>
+    <t>Angle of Height (log2 Scaled °)</t>
   </si>
 </sst>
 </file>
@@ -473,22 +473,22 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="1" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -496,16 +496,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -514,7 +514,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -525,31 +525,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -563,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -580,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10">
